--- a/backend/temp_works.xlsx
+++ b/backend/temp_works.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22248" windowHeight="9228"/>
+    <workbookView windowWidth="21696" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>作品 id</t>
   </si>
@@ -31,22 +31,214 @@
     <t>作品链接</t>
   </si>
   <si>
-    <t>作品1</t>
-  </si>
-  <si>
-    <t>作品1  的描述....</t>
-  </si>
-  <si>
-    <t>https://avatars2.githubusercontent.com/u/8016514</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd</t>
-  </si>
-  <si>
-    <t>作品2</t>
-  </si>
-  <si>
-    <t>作品2  的描述....</t>
+    <t>印花与织花围巾的设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/99/c8875124aee1ce184b2cb73f9066f4dba3082b.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/1.pdf</t>
+  </si>
+  <si>
+    <t>植物染紫色系抱枕设计</t>
+  </si>
+  <si>
+    <t>植物染产品的目标客群在于18岁-35岁年轻女性，她们是一群个性化、有独立想法的女性，愿意为自己认可的价值观而买单，经过市场调研，她们对于面料再造工艺也有着内心期许，再加上植物染本身染色质朴朴素的特质，笔者选取了面料再造工艺与植物染进行了产品上的结合，主要分为三种手法来呈现，分别是大面积拼布、小面积贴布和经纬交织；在调研中显示，抱枕在消费者购买过植物染产品中排第三，在家用纺织品中排第一，故采用抱枕为载体进行设计与制作。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png 译</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/3.pdf</t>
+  </si>
+  <si>
+    <t>再生海洋塑料面料的开发与应用</t>
+  </si>
+  <si>
+    <t>用再生海洋塑料面料结合环保的主题进行印花设计以及服装的设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg 译</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/6.pdf</t>
+  </si>
+  <si>
+    <t>《Live a good life》</t>
+  </si>
+  <si>
+    <t>如果你拥有一个幸福美满的家庭，那你就是全世界最幸福的人。系列一引入家庭人员：宝宝、父亲、母亲、奶奶中的代表元素以表现现代家庭生活节奏快的特点。 系列二引入老虎这一吉祥元素，改进传统老虎形象，结合中国风元素和时尚流行趋势进行设计，提高现年轻消费者接受度。改用Q版虎头鞋、虎掌、虎头元素，加上吉祥元素，赋予整体设计富贵、福气的寓意。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/ba/37d18aff57440d5e035f29b8682a954a415192.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/8.pdf</t>
+  </si>
+  <si>
+    <t>走出传统，未来穿着</t>
+  </si>
+  <si>
+    <t>走出固有的审美风格，走出传统，用穿着释放个性</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/9.pdf</t>
+  </si>
+  <si>
+    <t>生生谓之易</t>
+  </si>
+  <si>
+    <t>功能性运动毛针织面料设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg 译</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/10.pdf</t>
+  </si>
+  <si>
+    <t>家居服设计</t>
+  </si>
+  <si>
+    <t>本课题采取问卷调研和品牌调研两种方式，了解家居服的面料、款式、颜色、价格以及市场状况。基于调研结果，以大学生群体为对象，从面料、款式、图案设计对家居服进行设计。</t>
+  </si>
+  <si>
+    <t>以保护濒危动物为主题的数码印花丝巾设计</t>
+  </si>
+  <si>
+    <t>在面料的设计上，采用含有20%木棉的棉/木棉混纺的36支纱线进行双面针织面料的设计；款式的设计分别为开襟式、套头式两种款式；图案设计采用两种方案，其一是通过剪纸透视艺术寻找灵感来源，进行手绘透视图案；其二是自画像图案设计，借助照片设计自己的简笔画图案，最后将图案通过手绘实现在面料上。最终得到两款款式新颖、面料舒适、图案个性的家居服。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/78/8061b43188e521e0ae7a051986751199b9cfc7.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/12.pdf</t>
+  </si>
+  <si>
+    <t>缂毛</t>
+  </si>
+  <si>
+    <t>以通经断纬的传统工艺织造的装饰品</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/97/1828a49290ce70f9cc285e57b4ec0713e64bf2.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/13.pdf</t>
+  </si>
+  <si>
+    <t>手工编织配件饰品的设计与开发</t>
+  </si>
+  <si>
+    <t>以夏日风情为核心概念展开设计，通过手工编织，再结合手工染色，完成整个包袋的设计与制作。</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/15.pdf</t>
+  </si>
+  <si>
+    <t>时尚宋锦产品创新设计-顾芳华</t>
+  </si>
+  <si>
+    <t>在保留宋锦传统魅力的基础上，通过图案花纹和表现手法的创新得到两个系列的创新设计。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/fa/07343d4208bab4b03f713a62508f593e502686.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/16.pdf</t>
+  </si>
+  <si>
+    <t>《幻梦之境》</t>
+  </si>
+  <si>
+    <t>进行色纺纱色彩和工艺的设计并运用于针织连衣裙</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/cf/f75af1ab9588d7bca250da8944bae6411d69fe.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/18.pdf</t>
+  </si>
+  <si>
+    <t>时尚女士羽绒服的创新设计</t>
+  </si>
+  <si>
+    <t>设计分为羽绒服装与羽绒面料服饰品三个成品。设计一成品为“轻商务”，利用灵感花型“坚韧格纹”与西装版型拼接，体现女性的坚韧，如名字一样可穿着于较正式场合；设计二成品为“轻自然，灵感花型选择“破碎海洋”，以碎片式海洋元素拼接以警醒大众爱护海洋环境，保护我们现有的海洋资源，衣型较为休闲，特殊的翻领设计显得温柔；设计三为羽绒面料实验的衍生作品“轻出行”，利用创新羽绒面料制成子母包，以扎染的方式将面料染色后作为子包，TPU与银色闪粉结合拼接作为母包，既时尚又实用，是很好的服饰品选择。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg 译</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/22.pdf</t>
+  </si>
+  <si>
+    <t>食之记忆</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/f7/cbf7a4dc5fc4b26ede683e9de869d2b737d3d8.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/24.pdf</t>
+  </si>
+  <si>
+    <t>归去来兮</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/c4/3e06fa6333b734132a5ada08b59cfa7f5e57dd.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/25.pdf</t>
+  </si>
+  <si>
+    <t>药用饮片染色纺织品创新设计</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/28.pdf</t>
+  </si>
+  <si>
+    <t>江湖少年</t>
+  </si>
+  <si>
+    <t>缂织腰封创意设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/8a/c5247ad6f85e0bf5c90ccbe0b5badd51b97d9b.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/30.pdf</t>
+  </si>
+  <si>
+    <t>散诗 | 味道的记忆</t>
+  </si>
+  <si>
+    <t>色纺毛衫面料及成品设计</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/31.pdf</t>
+  </si>
+  <si>
+    <t>去哪儿</t>
+  </si>
+  <si>
+    <t>基于分形方法的提花面料设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/5c/73972f06aa117d7b0d745b46267c06c19dba31.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/33.pdf</t>
+  </si>
+  <si>
+    <t>仿植物气孔高散湿机织面料</t>
+  </si>
+  <si>
+    <t>通过织物组织结构的设计去模拟植物叶面气孔结构，使织物具有更好的散湿性能</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/c8/f6fa8fe188d701c0c62a47544d6529602e8ce0.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/34.pdf</t>
   </si>
 </sst>
 </file>
@@ -54,12 +246,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +260,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -77,12 +295,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -90,8 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,61 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +364,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -188,27 +394,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,181 +424,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,24 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -457,32 +636,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,147 +670,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,17 +1185,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.7" customWidth="1"/>
-    <col min="3" max="4" width="28.2" customWidth="1"/>
-    <col min="5" max="5" width="106" customWidth="1"/>
+    <col min="2" max="2" width="27.9" customWidth="1"/>
+    <col min="3" max="3" width="70.9" customWidth="1"/>
+    <col min="4" max="4" width="28.2" customWidth="1"/>
+    <col min="5" max="5" width="39.9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1026,90 +1224,341 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E3" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E4" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E5" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E6" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://vote.ilingyue.cn/media/8.pdf" tooltip="https://vote.ilingyue.cn/media/8.pdf"/>
+    <hyperlink ref="E20" r:id="rId2" display="https://vote.ilingyue.cn/media/33.pdf" tooltip="https://vote.ilingyue.cn/media/33.pdf"/>
+    <hyperlink ref="E12" r:id="rId3" display="https://vote.ilingyue.cn/media/16.pdf" tooltip="https://vote.ilingyue.cn/media/16.pdf"/>
+    <hyperlink ref="E18" r:id="rId4" display="https://vote.ilingyue.cn/media/30.pdf" tooltip="https://vote.ilingyue.cn/media/30.pdf"/>
+    <hyperlink ref="E19" r:id="rId5" display="https://vote.ilingyue.cn/media/31.pdf" tooltip="https://vote.ilingyue.cn/media/31.pdf"/>
+    <hyperlink ref="E4" r:id="rId6" display="https://vote.ilingyue.cn/media/6.pdf" tooltip="https://vote.ilingyue.cn/media/6.pdf"/>
+    <hyperlink ref="E21" r:id="rId7" display="https://vote.ilingyue.cn/media/34.pdf" tooltip="https://vote.ilingyue.cn/media/34.pdf"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://vote.ilingyue.cn/media/22.pdf" tooltip="https://vote.ilingyue.cn/media/22.pdf"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://vote.ilingyue.cn/media/13.pdf" tooltip="https://vote.ilingyue.cn/media/13.pdf"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://vote.ilingyue.cn/media/15.pdf" tooltip="https://vote.ilingyue.cn/media/15.pdf"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://vote.ilingyue.cn/media/18.pdf" tooltip="https://vote.ilingyue.cn/media/18.pdf"/>
+    <hyperlink ref="E15" r:id="rId12" display="https://vote.ilingyue.cn/media/24.pdf" tooltip="https://vote.ilingyue.cn/media/24.pdf"/>
+    <hyperlink ref="E17" r:id="rId13" display="https://vote.ilingyue.cn/media/28.pdf" tooltip="https://vote.ilingyue.cn/media/28.pdf"/>
+    <hyperlink ref="E7" r:id="rId14" display="https://vote.ilingyue.cn/media/10.pdf" tooltip="https://vote.ilingyue.cn/media/10.pdf"/>
+    <hyperlink ref="E3" r:id="rId15" display="https://vote.ilingyue.cn/media/3.pdf" tooltip="https://vote.ilingyue.cn/media/3.pdf"/>
+    <hyperlink ref="E6" r:id="rId16" display="https://vote.ilingyue.cn/media/9.pdf" tooltip="https://vote.ilingyue.cn/media/9.pdf"/>
+    <hyperlink ref="E9" r:id="rId17" display="https://vote.ilingyue.cn/media/12.pdf" tooltip="https://vote.ilingyue.cn/media/12.pdf"/>
+    <hyperlink ref="E16" r:id="rId18" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
+    <hyperlink ref="E2" r:id="rId19" display="https://vote.ilingyue.cn/media/1.pdf" tooltip="https://vote.ilingyue.cn/media/1.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
